--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD99769-E6DB-4AF2-9AE6-6E388231D835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6809-2269-4A43-A7E6-2AAE28F15955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -230,6 +236,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -547,7 +554,7 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,7 +784,7 @@
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6809-2269-4A43-A7E6-2AAE28F15955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21CACA-201A-40A5-91D5-C1183EE1C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -237,6 +243,7 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -554,7 +561,7 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,7 +792,9 @@
         <v>45684</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -817,8 +826,10 @@
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21CACA-201A-40A5-91D5-C1183EE1C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D1812-F02D-4908-8957-33E009F06A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,8 +861,10 @@
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D1812-F02D-4908-8957-33E009F06A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BF971-9D01-410D-B340-FBC4ED5AECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -156,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -229,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -244,6 +250,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -262,9 +269,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +309,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,7 +568,7 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,8 +903,10 @@
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BF971-9D01-410D-B340-FBC4ED5AECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B785A-307F-42E7-8B51-7EC6B19BD918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,8 +938,10 @@
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B785A-307F-42E7-8B51-7EC6B19BD918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04217E58-C9AA-4369-A8F7-703AAF9B14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Naam: </t>
   </si>
@@ -134,9 +134,6 @@
     <t>Pygame single player</t>
   </si>
   <si>
-    <t>Flask multiplayer</t>
-  </si>
-  <si>
     <t>2 instanties draaien</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>wegvallende verbinding: exceptions!</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>Jumping mechanisme maken</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F473AC-8E7D-4C1B-86C3-FA29E756172C}">
-  <dimension ref="A1:X89"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,7 +992,7 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -1018,7 +1021,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1027,8 +1030,10 @@
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1051,17 +1056,19 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
       <c r="E16" s="7">
-        <f>DATE(2025,3,25)</f>
-        <v>45741</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <f>DATE(2025,3,18)</f>
+        <v>45734</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1084,17 +1091,19 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17" s="7">
-        <f>DATE(2025,3,31)</f>
-        <v>45747</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <f>DATE(2025,3,21)</f>
+        <v>45737</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1117,17 +1126,18 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
-        <f>DATE(2025,4,7)</f>
-        <v>45754</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>45737</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1148,8 +1158,17 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <f>DATE(2025,3,28)</f>
+        <v>45744</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1172,10 +1191,6 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
@@ -1200,17 +1215,12 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <f>DATE(2025,4,14)</f>
-        <v>45761</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1235,14 +1245,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="7">
-        <f>DATE(2025,4,18)</f>
-        <v>45765</v>
+        <f>DATE(2025,4,14)</f>
+        <v>45761</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1268,14 +1278,14 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7">
-        <f>DATE(2025,4,25)</f>
-        <v>45772</v>
+        <f>DATE(2025,4,18)</f>
+        <v>45765</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1297,36 +1307,43 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <f>DATE(2025,4,25)</f>
+        <v>45772</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
@@ -2987,6 +3004,32 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04217E58-C9AA-4369-A8F7-703AAF9B14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4B54F-5361-45BA-A885-F1D44DDC944B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -194,7 +194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +219,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -252,7 +246,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +564,7 @@
   <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,7 +829,7 @@
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1">
         <v>2</v>
       </c>
@@ -906,7 +899,7 @@
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1">
         <v>2</v>
       </c>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4B54F-5361-45BA-A885-F1D44DDC944B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CB453-05D1-42A1-9D9A-594320FD6F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>ReactJS scorebord maken</t>
   </si>
   <si>
-    <t>Pygame single player</t>
-  </si>
-  <si>
     <t>2 instanties draaien</t>
   </si>
   <si>
@@ -146,10 +143,13 @@
     <t>wegvallende verbinding: exceptions!</t>
   </si>
   <si>
-    <t>Multiplayer</t>
+    <t>Jumping mechanisme maken</t>
   </si>
   <si>
-    <t>Jumping mechanisme maken</t>
+    <t>Multiplayer twee pc's</t>
+  </si>
+  <si>
+    <t>Multiplayer één pc</t>
   </si>
 </sst>
 </file>
@@ -563,14 +563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F473AC-8E7D-4C1B-86C3-FA29E756172C}">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" style="9" customWidth="1"/>
@@ -756,7 +756,7 @@
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -1014,7 +1014,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1049,7 +1049,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
@@ -1084,7 +1084,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1119,7 +1119,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1153,7 +1153,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -1162,8 +1162,10 @@
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>

--- a/documentatie/tijdtabel.xlsx
+++ b/documentatie/tijdtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecten\GIP\GIP_LS_2025\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CB453-05D1-42A1-9D9A-594320FD6F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE1A1A-0214-49BD-B652-E7CA8D2B0EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05ED82E6-A217-4E81-A4A5-6C754E771FA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Naam: </t>
   </si>
@@ -151,6 +151,9 @@
   <si>
     <t>Multiplayer één pc</t>
   </si>
+  <si>
+    <t>IP-adres ingeven voor op 2 computers te spelen</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +193,12 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -232,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -247,6 +256,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -561,17 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F473AC-8E7D-4C1B-86C3-FA29E756172C}">
-  <dimension ref="A1:X90"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.08984375" customWidth="1"/>
@@ -1186,9 +1197,17 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45751</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1210,10 +1229,6 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
       <c r="F21" s="1"/>
@@ -1238,17 +1253,12 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7">
-        <f>DATE(2025,4,14)</f>
-        <v>45761</v>
-      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1273,16 +1283,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7">
-        <f>DATE(2025,4,18)</f>
-        <v>45765</v>
-      </c>
-      <c r="F23" s="1"/>
+        <f>DATE(2025,4,14)</f>
+        <v>45761</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1306,16 +1316,16 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7">
-        <f>DATE(2025,4,25)</f>
-        <v>45772</v>
-      </c>
-      <c r="F24" s="1"/>
+        <f>DATE(2025,4,18)</f>
+        <v>45765</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1335,36 +1345,43 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <f>DATE(2025,4,25)</f>
+        <v>45772</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
@@ -3025,6 +3042,32 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
